--- a/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P29_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.121657100855673</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4.495777520435096</v>
+        <v>4.495777520435107</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.558906688488931</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.435435786633774</v>
+        <v>2.310987350484868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.52651178136478</v>
+        <v>-2.889634261870496</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.9565041069423235</v>
+        <v>-0.2634912216871957</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.642809802454019</v>
+        <v>1.853597519533144</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.635360356088931</v>
+        <v>-1.704220366142643</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.07975530445926532</v>
+        <v>0.1597550513952087</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.094916779403782</v>
+        <v>2.226693624968239</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.735356007048774</v>
+        <v>-1.397364467217287</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.03312428664575798</v>
+        <v>-0.2953654752307118</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.68635222478087</v>
+        <v>11.08183467123845</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.913402540115657</v>
+        <v>6.792869808396591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.779206978977371</v>
+        <v>9.614459007243918</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.229218648380168</v>
+        <v>7.313577241840245</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.982844740606873</v>
+        <v>3.959459842934475</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>5.721848918907551</v>
+        <v>5.557140789834027</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.4963879484373</v>
+        <v>7.496077697283473</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.049368718666601</v>
+        <v>4.383505332137051</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.386835742352187</v>
+        <v>5.27746600312565</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.04647545556066881</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.09848118636954455</v>
+        <v>0.0984811863695448</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3578640947903696</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.04981870532209028</v>
+        <v>0.04745573932669839</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.05267403600082469</v>
+        <v>-0.06006667275187363</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.01903707254541016</v>
+        <v>-0.005019847871554608</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1136097575277393</v>
+        <v>0.1314335958907299</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1147093335491738</v>
+        <v>-0.1218753148294342</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002299083043793072</v>
+        <v>0.01138793432868989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07121488146383269</v>
+        <v>0.08136167769415979</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05903154105786131</v>
+        <v>-0.04961767280836145</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.001269163498098184</v>
+        <v>-0.01039166643433244</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.267156152477252</v>
+        <v>0.2557849061580827</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1550338848267195</v>
+        <v>0.1591558451245936</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2252859222565317</v>
+        <v>0.2209151482203884</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6375729613983772</v>
+        <v>0.6378013401732546</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3515886699308756</v>
+        <v>0.3342875657013166</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.507187698042351</v>
+        <v>0.4959077878922813</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2868987704556052</v>
+        <v>0.2909550573941603</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1560496072893859</v>
+        <v>0.1714127989993548</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2057318680602825</v>
+        <v>0.202730373907309</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.979972272454122</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-5.580105787778578</v>
+        <v>-5.580105787778566</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.399617210089781</v>
@@ -869,7 +869,7 @@
         <v>3.068624721566116</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>3.893493164338962</v>
+        <v>3.893493164338968</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-0.2168051166670459</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.847325540732493</v>
+        <v>-4.924173568509005</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.220347173030518</v>
+        <v>-5.178462129589946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.139921366473828</v>
+        <v>-8.978979219568158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.876459658083921</v>
+        <v>-2.889548499019112</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1079608294996937</v>
+        <v>-0.2507825302713002</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8098692381283072</v>
+        <v>0.7849761897030392</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.688964897929262</v>
+        <v>-2.595028782182276</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.957962662948346</v>
+        <v>-1.949220725662113</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.631049058618789</v>
+        <v>-3.555467380365307</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.090581051447964</v>
+        <v>1.96552988042146</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.240301119731538</v>
+        <v>1.405015929214507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.394148944980694</v>
+        <v>-2.348136191023162</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.0234080776279</v>
+        <v>3.500664101480965</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.44497386117435</v>
+        <v>6.219127734411163</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.172139100015356</v>
+        <v>7.287528708818722</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.958769829169916</v>
+        <v>2.070485867109852</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.785839167754417</v>
+        <v>2.781343588663771</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.228886413758613</v>
+        <v>1.250041461853201</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.03164901473975026</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.08919561793048393</v>
+        <v>-0.08919561793048375</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.01188455877768903</v>
@@ -974,7 +974,7 @@
         <v>0.09126046113461596</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1157919308623393</v>
+        <v>0.1157919308623395</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.004464789935224552</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07481106182088093</v>
+        <v>-0.07746521850138892</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08102482178539934</v>
+        <v>-0.07969601774312113</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1428780800489268</v>
+        <v>-0.1390351139355015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08019346436463815</v>
+        <v>-0.0813301676758138</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.005041534046167347</v>
+        <v>-0.007847112413650289</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.024014953414076</v>
+        <v>0.02315519388569043</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05373556999140418</v>
+        <v>-0.0517676182618523</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.038858908075477</v>
+        <v>-0.03921242342885151</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07274321510480526</v>
+        <v>-0.07052283147335416</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.03445089837098116</v>
+        <v>0.03266056196410892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02037453226297355</v>
+        <v>0.02354810050200268</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.03874839191804107</v>
+        <v>-0.03796662407699903</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1273348947574536</v>
+        <v>0.1087595272533468</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2024669598449262</v>
+        <v>0.1939169110087201</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2287223800489692</v>
+        <v>0.229531248005862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0415860860585987</v>
+        <v>0.04355386054306053</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05979692714638549</v>
+        <v>0.05915598396358369</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.02595264409729991</v>
+        <v>0.02664284474713688</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.118497372743241</v>
+        <v>-2.336666306563615</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.08732562787740099</v>
+        <v>-0.4604476583716174</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.816217273473329</v>
+        <v>-6.876416763719016</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.304017059609289</v>
+        <v>1.858193766957575</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.85662416503475</v>
+        <v>4.517696964736903</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.227988225292068</v>
+        <v>2.986599902347361</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.280585950211675</v>
+        <v>0.8854179361292202</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.588313126046304</v>
+        <v>3.213734196624728</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9579968987625377</v>
+        <v>-1.362751099306498</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>10.11125487129895</v>
+        <v>9.927277696285829</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.97376547972533</v>
+        <v>11.4559750503856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.459571654055592</v>
+        <v>4.441463642133905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.38434200333524</v>
+        <v>15.67217257339585</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>17.97822079606292</v>
+        <v>17.1823398921942</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>14.37068192193642</v>
+        <v>14.36110444817698</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.30812840330372</v>
+        <v>10.24731235271978</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>12.20335753919792</v>
+        <v>12.4563205164722</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.88315139959114</v>
+        <v>6.898105721839897</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03229173283960479</v>
+        <v>-0.03465571683383246</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.001041302166094421</v>
+        <v>-0.009726223217922958</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1017733238252403</v>
+        <v>-0.1049624763887479</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.02919814994809039</v>
+        <v>0.0427338974877264</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.109582897139905</v>
+        <v>0.1008606547688601</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07496945323320668</v>
+        <v>0.06546033617819064</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02130111110753774</v>
+        <v>0.01677254091523702</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06435123499467012</v>
+        <v>0.0568646316394485</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.01754276471962017</v>
+        <v>-0.02473030417463943</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1695273493230758</v>
+        <v>0.1667496677738025</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1985535978835006</v>
+        <v>0.187540970668285</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07473148100349869</v>
+        <v>0.07501036201257966</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3870616458568519</v>
+        <v>0.4199301295500148</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4790107754110264</v>
+        <v>0.4572109521386456</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3950300077746255</v>
+        <v>0.3979867670743922</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1996488688978711</v>
+        <v>0.2033078294930221</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2460006399667825</v>
+        <v>0.2449204983755685</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1377587091024084</v>
+        <v>0.1355871935298233</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.742109037003081</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.4485543991180951</v>
+        <v>-0.4485543991181062</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.168488030905742</v>
@@ -1297,7 +1297,7 @@
         <v>6.148737391301134</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.541970392922572</v>
+        <v>8.541970392922577</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>2.64589461659715</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.29788641643712</v>
+        <v>0.06403437413921723</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6744834572947509</v>
+        <v>-0.5203051262486353</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.848342183679349</v>
+        <v>-2.9339433186291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.095278081156252</v>
+        <v>0.9336808462281059</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.057098131600123</v>
+        <v>3.878806956768722</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.396173264612914</v>
+        <v>6.535943288513534</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6491194420022141</v>
+        <v>0.8810493978956394</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.210687249867145</v>
+        <v>1.824419378602962</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.308347344020497</v>
+        <v>2.289290846151217</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.598166191457756</v>
+        <v>4.752948513797187</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.082583486217739</v>
+        <v>4.482860295522215</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.164526319529064</v>
+        <v>2.187537979104035</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.3097193119224</v>
+        <v>5.362525534991558</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.262178773647213</v>
+        <v>8.33333889275152</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.47585580882545</v>
+        <v>10.75953626290132</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.377893131178941</v>
+        <v>4.241368983395811</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.703942944146775</v>
+        <v>5.44568389427615</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.501182901835851</v>
+        <v>5.732415368542661</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.030347618445112</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.007813837978666291</v>
+        <v>-0.007813837978666485</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1195611394661188</v>
@@ -1402,7 +1402,7 @@
         <v>0.2320191970464048</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3223265177276773</v>
+        <v>0.3223265177276775</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.06342829652484414</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.004989940996199487</v>
+        <v>0.001221529789992981</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01147642625181369</v>
+        <v>-0.008801314810251318</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.0486356912664708</v>
+        <v>-0.05025119777602908</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04074924987350605</v>
+        <v>0.03371446161717653</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1479779699322081</v>
+        <v>0.1395372259653953</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2289652600312692</v>
+        <v>0.2379662740594718</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01511569399399433</v>
+        <v>0.02095573995767755</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05165211705018576</v>
+        <v>0.04148590650903435</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.05432569572997113</v>
+        <v>0.05395592124638902</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.08269788382509924</v>
+        <v>0.08546826311072075</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.07231416421251646</v>
+        <v>0.08098526831373214</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0387475893620769</v>
+        <v>0.03849513821866048</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2064197508666219</v>
+        <v>0.2081942112836734</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3233249195032035</v>
+        <v>0.3273437785588154</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4146994908582727</v>
+        <v>0.4280848717098658</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1071627247301494</v>
+        <v>0.103836401978803</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1388735032840276</v>
+        <v>0.1329899697923923</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.1338623187004535</v>
+        <v>0.1396915242947907</v>
       </c>
     </row>
     <row r="28">
